--- a/Ontap/Excel/Excel_De05.xlsx
+++ b/Ontap/Excel/Excel_De05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOCUMENTS\TaiLieuChuyenMon\GiangDay\THCS_2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DULIEU" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>BẢNG CHI TIẾT NHẬP XUẤT</t>
   </si>
@@ -57,24 +57,6 @@
     <t>Nếu 2 ký tự 3 và 4 của Mã hàng là "KS" thì "Nhà cung cấp" được hiểu là "Kim Sơn". Còn lại là "Ba Sao"</t>
   </si>
   <si>
-    <t>Câu hỏi 3. (0,5đ) Điền giá trị cho cột thuế xuất biết, thuế xuất là 1,2% và những mặt hàng Nhập là 0,5% (1,0đ)</t>
-  </si>
-  <si>
-    <t>Câu hỏi 4. (0,5đ) Thuế được tính là 10% nếu những mặt hàng được xuất trong vòng 15 ngày kể từ ngày nhập. Còn lại là 5%</t>
-  </si>
-  <si>
-    <t>Câu hỏi 5. (0,5đ) Tính tổng thuế của các Mã hàng (M, R, C) và điền vào Bảng 1</t>
-  </si>
-  <si>
-    <t>Câu hỏi 6. (0,5 đ) Vẽ đồ thị hình cột (Cluster Column) cho tổng thuế các Mã hàng ở Bảng 1</t>
-  </si>
-  <si>
-    <t>Câu hỏi 7. (0,5đ) Sắp xếp bảng tính tăng dần theo Nhà cung cấp. Nếu có cùng Nhà cung cấp thì sắp xếp giảm dần theo Ngày nhập</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Câu hỏi 8 (0,5đ) Lọc ra danh sách các nhà cung cấp là Ba Sao hoặc ngày nhập trước </t>
-  </si>
-  <si>
     <t>M-PV-01</t>
   </si>
   <si>
@@ -115,6 +97,21 @@
   </si>
   <si>
     <t>Giảm giá 2% cho những mặt hàng có số lượng &gt;200. Còn lại không giảm</t>
+  </si>
+  <si>
+    <t>Câu hỏi 3. (0,5đ) Thuế được tính là 10% nếu những mặt hàng được xuất trong vòng 15 ngày kể từ ngày nhập. Còn lại là 5%</t>
+  </si>
+  <si>
+    <t>Câu hỏi 4. (1,0 đ) Tính tổng thuế của các Mã hàng (M, R, C) và điền vào Bảng 1</t>
+  </si>
+  <si>
+    <t>Câu hỏi 5. (0,5 đ) Vẽ đồ thị hình cột (Cluster Column) cho tổng thuế các Mã hàng ở Bảng 1</t>
+  </si>
+  <si>
+    <t>Câu hỏi 6. (0,5đ) Sắp xếp bảng tính tăng dần theo Nhà cung cấp. Nếu có cùng Nhà cung cấp thì sắp xếp giảm dần theo Ngày nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Câu hỏi 7 (0,5đ) Lọc ra danh sách các nhà cung cấp là Ba Sao hoặc ngày nhập trước </t>
   </si>
 </sst>
 </file>
@@ -123,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -235,9 +232,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -253,17 +247,20 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -565,171 +562,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43215</v>
+      </c>
+      <c r="C3" s="5">
+        <v>120</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43235</v>
+      </c>
+      <c r="C4" s="5">
+        <v>110</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43212</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43232</v>
+      </c>
+      <c r="C6" s="5">
+        <v>198</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43213</v>
+      </c>
+      <c r="C7" s="5">
+        <v>201</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43229</v>
+      </c>
+      <c r="C8" s="5">
+        <v>165</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
-        <v>43215</v>
-      </c>
-      <c r="C3" s="6">
-        <v>120</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4">
-        <v>43235</v>
-      </c>
-      <c r="C4" s="6">
-        <v>110</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4">
-        <v>43212</v>
-      </c>
-      <c r="C5" s="6">
-        <v>200</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43232</v>
-      </c>
-      <c r="C6" s="6">
-        <v>198</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B12" s="10">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
-        <v>43213</v>
-      </c>
-      <c r="C7" s="6">
-        <v>201</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B13" s="10">
+        <v>6000</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
-        <v>43229</v>
-      </c>
-      <c r="C8" s="6">
-        <v>165</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11">
-        <v>43241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="12">
-        <v>8000</v>
-      </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="12">
-        <v>6000</v>
-      </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>15000</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -742,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -765,42 +762,37 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Ontap/Excel/Excel_De05.xlsx
+++ b/Ontap/Excel/Excel_De05.xlsx
@@ -111,7 +111,7 @@
     <t>Câu hỏi 6. (0,5đ) Sắp xếp bảng tính tăng dần theo Nhà cung cấp. Nếu có cùng Nhà cung cấp thì sắp xếp giảm dần theo Ngày nhập</t>
   </si>
   <si>
-    <t xml:space="preserve">Câu hỏi 7 (0,5đ) Lọc ra danh sách các nhà cung cấp là Ba Sao hoặc ngày nhập trước </t>
+    <t>Câu hỏi 7 (0,5đ) Lọc ra danh sách các nhà cung cấp là Ba Sao hoặc ngày nhập trước 10/05/2018</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
